--- a/B3-Proyecto1/docs/Entrega 2/Declaración de la contribución.xlsx
+++ b/B3-Proyecto1/docs/Entrega 2/Declaración de la contribución.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IIND V-ISISIII ISISIV\SISTRANS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianapinedamiranda/Desktop/B3/B3-Proyecto1/docs/Entrega 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F896F6B-D08C-4777-B50C-41016AB0F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6CA49-10D1-E14F-85ED-1B76CE0A74A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F803696E-E5CC-470A-8D77-38C02B7EB843}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{F803696E-E5CC-470A-8D77-38C02B7EB843}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,38 +672,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09361F38-CEDE-46D2-A383-C99660BAC758}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
     <col min="2" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
@@ -729,7 +729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,7 +747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -817,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -847,7 +847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -857,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -897,7 +897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -915,7 +915,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -981,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>33</v>
       </c>
@@ -1117,46 +1117,46 @@
         <v>0.99999000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1175,12 +1175,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010020F529DEB8C6B848B5973A83F61ADED3" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4a9bcd9e3e76677356288316930ed140">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e454257-1727-4a9d-9c89-66a9b64f5006" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="847a1593ea42407b13ba92d222becb45" ns2:_="">
     <xsd:import namespace="3e454257-1727-4a9d-9c89-66a9b64f5006"/>
@@ -1342,6 +1336,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1352,15 +1352,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B62CA1-A0FE-45AF-BF09-3FC6FE23BC46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2F76ED-DFA4-43A4-9235-7004A5DFE895}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1378,6 +1369,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B62CA1-A0FE-45AF-BF09-3FC6FE23BC46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71349ADA-141F-4CF7-8BFF-E7FB81A0DECC}">
   <ds:schemaRefs>
